--- a/HTML 태그 정리.xlsx
+++ b/HTML 태그 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vulca\Desktop\공부\Web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2C1A59-5968-4914-A487-9AFCB3284BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C10159-0846-4A62-818A-CAC87DC266E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C02F0918-FE3C-4C9F-9F6A-EBCBFEA6BA34}"/>
   </bookViews>
@@ -40,10 +40,10 @@
     <author>이승열</author>
   </authors>
   <commentList>
-    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{DA0DE6B7-ADFE-4EE5-85C3-F12E197063F0}">
+    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{DA0DE6B7-ADFE-4EE5-85C3-F12E197063F0}">
       <text/>
     </comment>
-    <comment ref="E33" authorId="0" shapeId="0" xr:uid="{19AFC4B0-3321-4686-89FD-4563158D3C9B}">
+    <comment ref="E40" authorId="0" shapeId="0" xr:uid="{19AFC4B0-3321-4686-89FD-4563158D3C9B}">
       <text>
         <r>
           <rPr>
@@ -57,13 +57,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="F44" authorId="0" shapeId="0" xr:uid="{09646608-2D3F-42D4-B151-D34E47C60A77}">
+    <comment ref="F51" authorId="0" shapeId="0" xr:uid="{09646608-2D3F-42D4-B151-D34E47C60A77}">
       <text/>
     </comment>
-    <comment ref="F48" authorId="0" shapeId="0" xr:uid="{F99CA2C4-8CC0-4BA5-9519-8EF1CB39CD56}">
+    <comment ref="F55" authorId="0" shapeId="0" xr:uid="{F99CA2C4-8CC0-4BA5-9519-8EF1CB39CD56}">
       <text/>
     </comment>
-    <comment ref="F59" authorId="0" shapeId="0" xr:uid="{3BAF2DCD-6AED-4908-8F86-9BF62C5E7325}">
+    <comment ref="F66" authorId="0" shapeId="0" xr:uid="{3BAF2DCD-6AED-4908-8F86-9BF62C5E7325}">
       <text>
         <r>
           <rPr>
@@ -143,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F60" authorId="0" shapeId="0" xr:uid="{F3323DBF-85D7-491B-AD10-C81631AFFCEA}">
+    <comment ref="F67" authorId="0" shapeId="0" xr:uid="{F3323DBF-85D7-491B-AD10-C81631AFFCEA}">
       <text>
         <r>
           <rPr>
@@ -159,37 +159,37 @@
         </r>
       </text>
     </comment>
-    <comment ref="B61" authorId="0" shapeId="0" xr:uid="{865D9D8A-9B00-4538-BA97-F9EE881FCD9B}">
+    <comment ref="B68" authorId="0" shapeId="0" xr:uid="{865D9D8A-9B00-4538-BA97-F9EE881FCD9B}">
       <text/>
     </comment>
-    <comment ref="F61" authorId="0" shapeId="0" xr:uid="{CC8F2131-1707-4326-B81A-4CAE2F9D7B94}">
+    <comment ref="F68" authorId="0" shapeId="0" xr:uid="{CC8F2131-1707-4326-B81A-4CAE2F9D7B94}">
       <text/>
     </comment>
-    <comment ref="B63" authorId="0" shapeId="0" xr:uid="{E3C53594-3FDD-44C7-9707-C7335C88F799}">
+    <comment ref="B70" authorId="0" shapeId="0" xr:uid="{E3C53594-3FDD-44C7-9707-C7335C88F799}">
       <text/>
     </comment>
-    <comment ref="C65" authorId="0" shapeId="0" xr:uid="{D401FB4C-7206-45BA-B6EF-C9075D691F9E}">
+    <comment ref="C72" authorId="0" shapeId="0" xr:uid="{D401FB4C-7206-45BA-B6EF-C9075D691F9E}">
       <text/>
     </comment>
-    <comment ref="E65" authorId="0" shapeId="0" xr:uid="{03C3F4D0-C4DE-4A99-9229-C7B14FFEB535}">
+    <comment ref="E72" authorId="0" shapeId="0" xr:uid="{03C3F4D0-C4DE-4A99-9229-C7B14FFEB535}">
       <text/>
     </comment>
-    <comment ref="F65" authorId="0" shapeId="0" xr:uid="{D862C207-D9B7-4808-A696-71472DD82681}">
+    <comment ref="F72" authorId="0" shapeId="0" xr:uid="{D862C207-D9B7-4808-A696-71472DD82681}">
       <text/>
     </comment>
-    <comment ref="F67" authorId="0" shapeId="0" xr:uid="{C3721742-9D65-4BE6-B83F-15D591B2D1BE}">
+    <comment ref="F74" authorId="0" shapeId="0" xr:uid="{C3721742-9D65-4BE6-B83F-15D591B2D1BE}">
       <text/>
     </comment>
-    <comment ref="F68" authorId="0" shapeId="0" xr:uid="{EFB9CF59-2513-472A-B009-4E9D45224F8E}">
+    <comment ref="F75" authorId="0" shapeId="0" xr:uid="{EFB9CF59-2513-472A-B009-4E9D45224F8E}">
       <text/>
     </comment>
-    <comment ref="F75" authorId="0" shapeId="0" xr:uid="{7BD0607C-CFF4-438B-87CA-FFD72473E433}">
+    <comment ref="F82" authorId="0" shapeId="0" xr:uid="{7BD0607C-CFF4-438B-87CA-FFD72473E433}">
       <text/>
     </comment>
-    <comment ref="F76" authorId="0" shapeId="0" xr:uid="{7EF44AFD-3C2D-44BD-8828-5229C3A2E215}">
+    <comment ref="F83" authorId="0" shapeId="0" xr:uid="{7EF44AFD-3C2D-44BD-8828-5229C3A2E215}">
       <text/>
     </comment>
-    <comment ref="F79" authorId="0" shapeId="0" xr:uid="{2A9E823E-989C-4D2F-8A80-0F91D9A6229D}">
+    <comment ref="F86" authorId="0" shapeId="0" xr:uid="{2A9E823E-989C-4D2F-8A80-0F91D9A6229D}">
       <text/>
     </comment>
   </commentList>
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="332">
   <si>
     <t>태그</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1456,16 +1456,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;!DOCTYPE html&gt;
-    &lt;html&gt;
-        &lt;head&gt;
-        &lt;/head&gt;
-        &lt;body&gt;
-        &lt;/body&gt;
-    &lt;/html&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;pre&gt;
   &lt;code&gt;
     console.writeline("Hello Mark");
@@ -1483,6 +1473,209 @@
   </si>
   <si>
     <t xml:space="preserve"> 헤드 태그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 문서의 타이틀 이름(탭) 을 적음 - 검색최적화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;title&gt; Main Page &lt;/title&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Link 태그 넣기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link:css (탭) -&gt; &lt;link rel="stylesheet" href="style.css"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;link rel="stylesheet" href="style.css"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Style 태그 넣기 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Style은 html코드에서 css코드를 넣을수 있게 해줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;style&gt;
+  h1{
+       color:red;
+      }
+&lt;/style&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;style&gt; &lt;/style&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src 태그 넣기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>script:src (탭) -&gt;&lt;script src=""&gt;&lt;/script&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src는 html코드에서 javascript코드를 불러오는 태그
+src=""안에 자바스크립트 위치를 입력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;script src=""&gt;&lt;/script&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link태그는 html코드에서 css코드를 불러오는 태그
+href 는 css파일 위치를 나타냄.
+다른 폰트를 가져올때는 링크를 넣고 쓰일 곳에서 font-family를 넣어서 
+어디에 입력할지 알려줌 (가져올 사이트에 있음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>script 태그 넣기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>script태그는  style과 같이 html코드에서 javascript코드를 작성하게 해줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;script&gt; &lt;/script&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;script&gt;
+  &lt;var h1 = document.querySelector('h1'};
+  h1.addEventListener('click', function (event) 
+  {this.textContent = 'hi';})
+&lt;/script&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 바디 태그
+(끝부분)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메타 태그 넣기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메타 태그 넣기
+(다른 종류)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vs code에서 ! (탭)을하면 기본 문법은 작성이됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;meta name="viewport" content="width=device-wiidth",
+initial-scale=1.0"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>viewport는 반응형 웹 브라우저를 만들기 위함
+width는 크기가 디바이스에 맞게 자동으로 변환하게 만들어줌
+initial-scale은 처음 사이즈를 1.0으로 나타냄을 알려줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;meta name="author" content="Mark"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;meta name="keywords" content="study, mark"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;meta name="description" content=""&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 웹페이지의 컨텐츠를 알림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 웹페이지의 키워드를 알림 - 검색할때 도움을 줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 웹페이지의 작성자가 누구인지 알려줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;meta name="description" content="tag collection"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>읽어주기 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aria-label=""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시각장애인또는 음성으로 페이지를 읽을때 무엇으로 읽을지 지정해줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="#" arria-label="Go to previos page"&gt; Previous&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭하면 그 단어를 hi로 변경시킴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Previos 라고 읽지 않고 Go to previos page라고 읽음 - 참조 웹공부 html훈련 breadcrumb breadcrumb.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML의 시작을 알림
+(언어)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;html lang=""&gt; &lt;/html&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>html작성시 코드 제외 언어가 무엇인지 나타냄 보통 en또는 ko</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;!DOCTYPE html&gt;
+    &lt;html lang="ko"&gt;
+        &lt;head&gt;
+            (모든 사전작업)
+        &lt;/head&gt;
+        &lt;body&gt;
+            (모든 컨텐츠)
+        &lt;/body&gt;
+    &lt;/html&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>읽어주기 설정
+(읽지 않기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aria-hidden="true"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동적으로 읽을 것을 읽지 않게 해줌
+스타일 적인 요소에 쓰임</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1698,7 +1891,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1780,59 +1973,101 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1842,6 +2077,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF00"/>
       <color rgb="FFF2F2F2"/>
       <color rgb="FFD9E1F2"/>
       <color rgb="FFFFC0CB"/>
@@ -1864,13 +2100,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>347382</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>476250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1917,13 +2153,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>876300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>466725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1970,13 +2206,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>324971</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>336176</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>1266264</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2023,13 +2259,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>336176</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>818029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>347382</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>526676</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2075,15 +2311,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>347382</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>358588</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>1042147</xdr:rowOff>
+      <xdr:colOff>347382</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>1456765</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2097,9 +2333,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="347382" y="40643735"/>
-          <a:ext cx="11206" cy="3675530"/>
+        <a:xfrm flipH="1">
+          <a:off x="324971" y="49563618"/>
+          <a:ext cx="22411" cy="4090147"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2135,7 +2371,7 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2160,6 +2396,162 @@
         <a:ln>
           <a:tailEnd type="triangle"/>
         </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>347382</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>358588</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1109382</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC22E796-4AD2-4568-80BA-C208F38F7952}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="347382" y="2969559"/>
+          <a:ext cx="11206" cy="2935941"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>347382</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>358588</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1075765</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C873EFE-5507-491D-A9B5-37E4B067738D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="347382" y="6039971"/>
+          <a:ext cx="11206" cy="1053353"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>672353</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>470647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BC721B5-E788-4CB5-8A86-47388B6305A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11206" y="0"/>
+          <a:ext cx="661147" cy="470647"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -2478,11 +2870,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BAD64F8-BF53-4049-865E-CEFEC99511C8}">
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D44" activeCellId="1" sqref="D111 D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2493,10 +2885,11 @@
     <col min="4" max="4" width="58" style="4" customWidth="1"/>
     <col min="5" max="5" width="69.5" customWidth="1"/>
     <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="99.375" customWidth="1"/>
+    <col min="7" max="7" width="99.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="13" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="38"/>
       <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
@@ -2512,12 +2905,12 @@
       <c r="F1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="49" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="23" customFormat="1" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="39" t="s">
         <v>282</v>
       </c>
       <c r="B2" s="20" t="s">
@@ -2529,13 +2922,16 @@
       <c r="D2" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="E2" s="39" t="s">
-        <v>285</v>
+      <c r="E2" s="53" t="s">
+        <v>328</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="32" t="s">
         <v>276</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2544,1069 +2940,1261 @@
       <c r="D3" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="E3" s="40"/>
+      <c r="E3" s="52"/>
+      <c r="G3" s="52"/>
     </row>
     <row r="4" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="34" t="s">
+      <c r="A4" s="41"/>
+      <c r="B4" s="48" t="s">
+        <v>325</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E4" s="52"/>
+      <c r="G4" s="52"/>
+    </row>
+    <row r="5" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
+      <c r="B5" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="E4" s="40"/>
-    </row>
-    <row r="5" spans="1:7" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
-      <c r="B5" s="34" t="s">
+      <c r="E5" s="52"/>
+      <c r="G5" s="52"/>
+    </row>
+    <row r="6" spans="1:7" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15"/>
+      <c r="B6" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="E5" s="40"/>
-    </row>
-    <row r="6" spans="1:7" s="23" customFormat="1" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="26" t="s">
+      <c r="E6" s="52"/>
+      <c r="G6" s="52"/>
+    </row>
+    <row r="7" spans="1:7" s="23" customFormat="1" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="52"/>
+    </row>
+    <row r="8" spans="1:7" s="47" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="35"/>
+      <c r="B8" s="48" t="s">
+        <v>308</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>310</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>311</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>310</v>
+      </c>
+      <c r="G8" s="52"/>
+    </row>
+    <row r="9" spans="1:7" s="47" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="35"/>
+      <c r="B9" s="48" t="s">
+        <v>308</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="G9" s="38"/>
+    </row>
+    <row r="10" spans="1:7" s="47" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="35"/>
+      <c r="B10" s="48" t="s">
+        <v>308</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>313</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>313</v>
+      </c>
+      <c r="G10" s="38"/>
+    </row>
+    <row r="11" spans="1:7" s="47" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="35"/>
+      <c r="B11" s="48" t="s">
+        <v>308</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>315</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="G11" s="38"/>
+    </row>
+    <row r="12" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="25"/>
-    </row>
-    <row r="7" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="34"/>
-      <c r="E7" s="43"/>
-    </row>
-    <row r="8" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="34"/>
-      <c r="E8" s="43"/>
-    </row>
-    <row r="9" spans="1:7" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15"/>
-      <c r="B9" s="34"/>
-      <c r="E9" s="43"/>
-    </row>
-    <row r="10" spans="1:7" s="23" customFormat="1" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
+      <c r="E12" s="38" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15"/>
+      <c r="B13" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="27"/>
+      <c r="B14" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="23" customFormat="1" ht="46.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="G15" s="25"/>
+    </row>
+    <row r="16" spans="1:7" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="27"/>
+      <c r="B16" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>305</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="23" customFormat="1" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B17" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C17" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D17" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E17" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F17" s="36" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+      <c r="G17" s="25"/>
+    </row>
+    <row r="18" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E18" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+    <row r="19" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E19" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+    <row r="20" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E20" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F20" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
+    <row r="21" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
+    <row r="22" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E22" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
+    <row r="23" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E23" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="5" t="s">
+    <row r="24" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E24" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="5" t="s">
+    <row r="25" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E25" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
+    <row r="26" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E26" t="s">
         <v>91</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G26" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
+    <row r="27" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
+    <row r="28" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
+    <row r="29" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E29" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
+    <row r="30" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C30" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D30" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E30" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
+    <row r="31" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C31" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D31" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E31" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
+    <row r="32" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E32" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="5" t="s">
+    <row r="33" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E33" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="5" t="s">
+    <row r="34" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E34" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="5" t="s">
+    <row r="35" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="5" t="s">
+    <row r="36" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
+    <row r="37" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E37" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
+    <row r="38" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E38" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
+    <row r="39" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E39" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="5" t="s">
+    <row r="40" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="27"/>
-    </row>
-    <row r="34" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="5" t="s">
+      <c r="E40" s="50"/>
+    </row>
+    <row r="41" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E34" s="27"/>
-    </row>
-    <row r="35" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="5" t="s">
+      <c r="E41" s="50"/>
+    </row>
+    <row r="42" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E35" s="27"/>
-    </row>
-    <row r="36" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="5" t="s">
+      <c r="E42" s="50"/>
+    </row>
+    <row r="43" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E43" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="5" t="s">
+    <row r="44" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="5" t="s">
+    <row r="45" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D45" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="5" t="s">
+    <row r="46" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D46" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E46" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="5" t="s">
+    <row r="47" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D47" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E47" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="11" t="s">
+    <row r="48" spans="2:6" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C48" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D48" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-    </row>
-    <row r="42" spans="1:6" s="23" customFormat="1" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="24" t="s">
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" spans="1:7" s="23" customFormat="1" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B49" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C49" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D49" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="E42" s="25" t="s">
+      <c r="E49" s="25" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="1" t="s">
+      <c r="G49" s="25"/>
+    </row>
+    <row r="50" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D50" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="5" t="s">
+    <row r="51" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D51" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E51" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F44" s="18"/>
-    </row>
-    <row r="45" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="5" t="s">
+      <c r="F51" s="18"/>
+    </row>
+    <row r="52" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D52" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="5" t="s">
+    <row r="53" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D53" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="E53" s="12" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="5" t="s">
+    <row r="54" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D54" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="E54" s="12" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="5" t="s">
+    <row r="55" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D55" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E55" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F48" s="18"/>
-    </row>
-    <row r="49" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="1" t="s">
+      <c r="F55" s="18"/>
+    </row>
+    <row r="56" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D56" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="50" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="5" t="s">
+    <row r="57" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D57" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E57" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="1" t="s">
+    <row r="58" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D58" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E58" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="52" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="1" t="s">
+    <row r="59" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D59" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E59" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="53" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="1" t="s">
+    <row r="60" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D60" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E60" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="5" t="s">
+    <row r="61" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D61" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E61" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="55" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="1" t="s">
+    <row r="62" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D62" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E62" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="56" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="5" t="s">
+    <row r="63" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D63" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E63" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="57" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="1" t="s">
+    <row r="64" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D64" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E64" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="5" t="s">
+    <row r="65" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D65" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="59" spans="2:6" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="1" t="s">
+    <row r="66" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D66" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E59" s="12" t="s">
+      <c r="E66" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="F59" s="18"/>
-    </row>
-    <row r="60" spans="2:6" ht="102" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="1" t="s">
+      <c r="F66" s="18"/>
+    </row>
+    <row r="67" spans="1:7" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D67" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="E67" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="F60" s="18"/>
-    </row>
-    <row r="61" spans="2:6" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="19" t="s">
+      <c r="F67" s="18"/>
+    </row>
+    <row r="68" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C68" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D68" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E68" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F61" s="18"/>
-    </row>
-    <row r="62" spans="2:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="5" t="s">
+      <c r="F68" s="18"/>
+    </row>
+    <row r="69" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C69" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D69" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="63" spans="2:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="19" t="s">
+    <row r="70" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D70" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E70" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="64" spans="2:6" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="5" t="s">
+    <row r="71" spans="1:7" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D71" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="23" customFormat="1" ht="87.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="26" t="s">
+    <row r="72" spans="1:7" s="23" customFormat="1" ht="87.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="B65" s="20" t="s">
+      <c r="B72" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="C65" s="21"/>
-      <c r="D65" s="22" t="s">
+      <c r="C72" s="21"/>
+      <c r="D72" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-    </row>
-    <row r="66" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="5" t="s">
+      <c r="E72" s="50"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="25"/>
+    </row>
+    <row r="73" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C66" s="28" t="s">
+      <c r="C73" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="D66" s="29"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-    </row>
-    <row r="67" spans="1:6" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="5" t="s">
+      <c r="D73" s="58"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="50"/>
+    </row>
+    <row r="74" spans="1:7" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C74" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D74" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E74" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="F67" s="18"/>
-    </row>
-    <row r="68" spans="1:6" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="5" t="s">
+      <c r="F74" s="18"/>
+    </row>
+    <row r="75" spans="1:7" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C75" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D75" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E75" t="s">
         <v>229</v>
       </c>
-      <c r="F68" s="18"/>
-    </row>
-    <row r="69" spans="1:6" s="23" customFormat="1" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="31" t="s">
+      <c r="F75" s="18"/>
+    </row>
+    <row r="76" spans="1:7" s="23" customFormat="1" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="B69" s="20" t="s">
+      <c r="B76" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="C69" s="25" t="s">
+      <c r="C76" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="D69" s="22" t="s">
+      <c r="D76" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="E69" s="36" t="s">
+      <c r="E76" s="54" t="s">
         <v>250</v>
       </c>
-      <c r="F69" s="41"/>
-    </row>
-    <row r="70" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="15"/>
-      <c r="B70" s="1" t="s">
+      <c r="F76" s="37"/>
+      <c r="G76" s="25"/>
+    </row>
+    <row r="77" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="15"/>
+      <c r="B77" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D77" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E70" s="37"/>
-      <c r="F70" s="30"/>
-    </row>
-    <row r="71" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="15"/>
-      <c r="B71" s="16" t="s">
+      <c r="E77" s="55"/>
+      <c r="F77" s="28"/>
+    </row>
+    <row r="78" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="15"/>
+      <c r="B78" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C78" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D78" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="E71" s="37"/>
-      <c r="F71" s="30"/>
-    </row>
-    <row r="72" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="1" t="s">
+      <c r="E78" s="55"/>
+      <c r="F78" s="28"/>
+    </row>
+    <row r="79" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D79" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="E72" s="37"/>
-      <c r="F72" s="30"/>
-    </row>
-    <row r="73" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="15"/>
-      <c r="B73" s="16" t="s">
+      <c r="E79" s="55"/>
+      <c r="F79" s="28"/>
+    </row>
+    <row r="80" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="15"/>
+      <c r="B80" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C80" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D80" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="E73" s="37"/>
-      <c r="F73" s="30"/>
-    </row>
-    <row r="74" spans="1:6" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="1" t="s">
+      <c r="E80" s="55"/>
+      <c r="F80" s="28"/>
+    </row>
+    <row r="81" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D81" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="E74" s="42"/>
-      <c r="F74" s="30"/>
-    </row>
-    <row r="75" spans="1:6" s="23" customFormat="1" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="31" t="s">
+      <c r="E81" s="56"/>
+      <c r="F81" s="28"/>
+    </row>
+    <row r="82" spans="1:7" s="23" customFormat="1" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="B75" s="20" t="s">
+      <c r="B82" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="C75" s="32" t="s">
+      <c r="C82" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="D75" s="22" t="s">
+      <c r="D82" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="E75" s="22" t="s">
+      <c r="E82" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="F75" s="33"/>
-    </row>
-    <row r="76" spans="1:6" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="1" t="s">
+      <c r="F82" s="31"/>
+      <c r="G82" s="25"/>
+    </row>
+    <row r="83" spans="1:7" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D83" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="E83" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="F76" s="18"/>
-    </row>
-    <row r="77" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="1" t="s">
+      <c r="F83" s="18"/>
+    </row>
+    <row r="84" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D84" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="E77" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="F77" s="4" t="s">
+      <c r="E84" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F84" s="4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="1" t="s">
+    <row r="85" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D85" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="E85" s="4" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="1" t="s">
+    <row r="86" spans="1:7" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D86" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="E79" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="F79" s="18"/>
+      <c r="E86" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F86" s="18"/>
+    </row>
+    <row r="87" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="40" t="s">
+        <v>329</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="109" spans="4:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D109"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="E69:E74"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
+  <mergeCells count="7">
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="E76:E81"/>
+    <mergeCell ref="E40:E42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HTML 태그 정리.xlsx
+++ b/HTML 태그 정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vulca\Desktop\공부\Web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C10159-0846-4A62-818A-CAC87DC266E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0F73C3-F86D-4C0F-8EF6-1E5FF8B524FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C02F0918-FE3C-4C9F-9F6A-EBCBFEA6BA34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C02F0918-FE3C-4C9F-9F6A-EBCBFEA6BA34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -177,19 +177,19 @@
     <comment ref="F72" authorId="0" shapeId="0" xr:uid="{D862C207-D9B7-4808-A696-71472DD82681}">
       <text/>
     </comment>
-    <comment ref="F74" authorId="0" shapeId="0" xr:uid="{C3721742-9D65-4BE6-B83F-15D591B2D1BE}">
+    <comment ref="F75" authorId="0" shapeId="0" xr:uid="{C3721742-9D65-4BE6-B83F-15D591B2D1BE}">
       <text/>
     </comment>
-    <comment ref="F75" authorId="0" shapeId="0" xr:uid="{EFB9CF59-2513-472A-B009-4E9D45224F8E}">
+    <comment ref="F76" authorId="0" shapeId="0" xr:uid="{EFB9CF59-2513-472A-B009-4E9D45224F8E}">
       <text/>
     </comment>
-    <comment ref="F82" authorId="0" shapeId="0" xr:uid="{7BD0607C-CFF4-438B-87CA-FFD72473E433}">
+    <comment ref="F83" authorId="0" shapeId="0" xr:uid="{7BD0607C-CFF4-438B-87CA-FFD72473E433}">
       <text/>
     </comment>
-    <comment ref="F83" authorId="0" shapeId="0" xr:uid="{7EF44AFD-3C2D-44BD-8828-5229C3A2E215}">
+    <comment ref="F84" authorId="0" shapeId="0" xr:uid="{7EF44AFD-3C2D-44BD-8828-5229C3A2E215}">
       <text/>
     </comment>
-    <comment ref="F86" authorId="0" shapeId="0" xr:uid="{2A9E823E-989C-4D2F-8A80-0F91D9A6229D}">
+    <comment ref="F87" authorId="0" shapeId="0" xr:uid="{2A9E823E-989C-4D2F-8A80-0F91D9A6229D}">
       <text/>
     </comment>
   </commentList>
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="334">
   <si>
     <t>태그</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -297,10 +297,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HTML에서는 스페이스바를 누른다고 줄이 띄워지지않음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>줄띄우기&lt;br&gt;입니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -716,21 +712,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>html에서는 아무의미 없음 나누고 싶을때 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>데이터 인풋 받기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;form action=" " method=" "&gt; &lt;/form&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>form 은 인풋을 받는다는 시동어(알려줌) 
-action 은 받은 인풋을 어디로 보낼지 넣는 주소(api 주소-백엔드)
-method는 get과 post로 나뉘며 정보의 량이 클때는 post, 적을때는 get을 쓰며 서버쪽 코드이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1676,6 +1662,32 @@
   <si>
     <t>자동적으로 읽을 것을 읽지 않게 해줌
 스타일 적인 요소에 쓰임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>html에서는 아무의미 없음 나누고 싶을때 사용 css 용이하게 해줌
+.클래스 이름 을 넣고 엔터하면 그 클래스에 맞는 div가 생성됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML에서는 엔터바를 누른다고 줄이 띄워지지않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>form 은 인풋을 받는다는 시동어(알려줌) 
+action 은 받은 인풋을 어디로 보낼지 넣는 주소(api 주소-백엔드)
+method는 get과 post로 나뉘며 정보의 량이 클때는 post, 
+적을때는 get을 쓰며 서버쪽 코드이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table 만들기
+(여러줄 넣기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>th*num 엔터를 하면 th가 num만큼 생성
+td</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1814,7 +1826,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1885,13 +1897,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1934,9 +1961,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2039,35 +2063,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2152,13 +2188,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>876300</xdr:rowOff>
+      <xdr:colOff>290232</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:colOff>313765</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>466725</xdr:rowOff>
     </xdr:to>
@@ -2175,61 +2211,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="323850" y="17202150"/>
-          <a:ext cx="9525" cy="12877800"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>324971</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>336176</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>1266264</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73066551-B2E0-446B-B6F6-02C911D1A910}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="324971" y="31623000"/>
-          <a:ext cx="11205" cy="4056529"/>
+          <a:off x="290232" y="26759647"/>
+          <a:ext cx="23533" cy="13319872"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2259,13 +2242,66 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>336176</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>1086971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>347382</xdr:colOff>
       <xdr:row>75</xdr:row>
+      <xdr:rowOff>1266264</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73066551-B2E0-446B-B6F6-02C911D1A910}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="336176" y="41192824"/>
+          <a:ext cx="11206" cy="5188322"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>336176</xdr:colOff>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>818029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>347382</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>526676</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2311,15 +2347,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>324971</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:colOff>347382</xdr:colOff>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>347382</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>1456765</xdr:rowOff>
+      <xdr:colOff>358588</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>549088</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2333,9 +2369,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="324971" y="49563618"/>
-          <a:ext cx="22411" cy="4090147"/>
+        <a:xfrm>
+          <a:off x="347382" y="50056677"/>
+          <a:ext cx="11206" cy="5154705"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2870,11 +2906,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BAD64F8-BF53-4049-865E-CEFEC99511C8}">
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D44" activeCellId="1" sqref="D111 D44"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2889,300 +2925,301 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="13" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38"/>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="37"/>
+      <c r="B1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="60" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="22" customFormat="1" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>325</v>
+      </c>
+      <c r="F2" s="46"/>
+      <c r="G2" s="57" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="49" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="23" customFormat="1" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
-        <v>282</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="E2" s="53" t="s">
-        <v>328</v>
-      </c>
-      <c r="G2" s="51" t="s">
+      <c r="E3" s="57"/>
+      <c r="G3" s="57"/>
+    </row>
+    <row r="4" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="40"/>
+      <c r="B4" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="E4" s="57"/>
+      <c r="G4" s="57"/>
+    </row>
+    <row r="5" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
+      <c r="B5" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E5" s="57"/>
+      <c r="G5" s="57"/>
+    </row>
+    <row r="6" spans="1:7" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="14"/>
+      <c r="B6" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E6" s="57"/>
+      <c r="G6" s="57"/>
+    </row>
+    <row r="7" spans="1:7" s="22" customFormat="1" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="57"/>
+    </row>
+    <row r="8" spans="1:7" s="46" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="34"/>
+      <c r="B8" s="47" t="s">
+        <v>305</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>307</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>308</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>307</v>
+      </c>
+      <c r="G8" s="57"/>
+    </row>
+    <row r="9" spans="1:7" s="46" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="34"/>
+      <c r="B9" s="47" t="s">
+        <v>305</v>
+      </c>
+      <c r="C9" s="37" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="E3" s="52"/>
-      <c r="G3" s="52"/>
-    </row>
-    <row r="4" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41"/>
-      <c r="B4" s="48" t="s">
-        <v>325</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="E4" s="52"/>
-      <c r="G4" s="52"/>
-    </row>
-    <row r="5" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
-      <c r="B5" s="32" t="s">
-        <v>283</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E5" s="52"/>
-      <c r="G5" s="52"/>
-    </row>
-    <row r="6" spans="1:7" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15"/>
-      <c r="B6" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="E6" s="52"/>
-      <c r="G6" s="52"/>
-    </row>
-    <row r="7" spans="1:7" s="23" customFormat="1" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="26" t="s">
+      <c r="D9" s="45" t="s">
+        <v>314</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="G9" s="37"/>
+    </row>
+    <row r="10" spans="1:7" s="46" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="34"/>
+      <c r="B10" s="47" t="s">
+        <v>305</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>310</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>310</v>
+      </c>
+      <c r="G10" s="37"/>
+    </row>
+    <row r="11" spans="1:7" s="46" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="34"/>
+      <c r="B11" s="47" t="s">
+        <v>305</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>312</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="G11" s="37"/>
+    </row>
+    <row r="12" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="31" t="s">
         <v>287</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="52"/>
-    </row>
-    <row r="8" spans="1:7" s="47" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35"/>
-      <c r="B8" s="48" t="s">
-        <v>308</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>310</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>311</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>310</v>
-      </c>
-      <c r="G8" s="52"/>
-    </row>
-    <row r="9" spans="1:7" s="47" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35"/>
-      <c r="B9" s="48" t="s">
-        <v>308</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>312</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>317</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>312</v>
-      </c>
-      <c r="G9" s="38"/>
-    </row>
-    <row r="10" spans="1:7" s="47" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
-      <c r="B10" s="48" t="s">
-        <v>308</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>313</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>316</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>313</v>
-      </c>
-      <c r="G10" s="38"/>
-    </row>
-    <row r="11" spans="1:7" s="47" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35"/>
-      <c r="B11" s="48" t="s">
-        <v>308</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>314</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>315</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>318</v>
-      </c>
-      <c r="G11" s="38"/>
-    </row>
-    <row r="12" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="D13" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="E13" s="37" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="32" t="s">
+    <row r="14" spans="1:7" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="26"/>
+      <c r="B14" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E14" s="41" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="22" customFormat="1" ht="46.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="43" t="s">
+        <v>303</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="1:7" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="26"/>
+      <c r="B16" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="E13" s="38" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="27"/>
-      <c r="B14" s="35" t="s">
-        <v>293</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="23" customFormat="1" ht="46.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="44" t="s">
-        <v>306</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>297</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>298</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="E15" s="30" t="s">
+      <c r="D16" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="G15" s="25"/>
-    </row>
-    <row r="16" spans="1:7" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="27"/>
-      <c r="B16" s="35" t="s">
+      <c r="E16" s="42" t="s">
         <v>302</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="E16" s="43" t="s">
-        <v>305</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="23" customFormat="1" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="B17" s="20" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="22" customFormat="1" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="25"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" t="s">
         <v>58</v>
       </c>
-      <c r="E18" t="s">
-        <v>59</v>
-      </c>
       <c r="F18" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
@@ -3215,7 +3252,7 @@
       <c r="E20" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="16" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3238,963 +3275,976 @@
         <v>23</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E22" t="s">
         <v>24</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" t="s">
         <v>86</v>
-      </c>
-      <c r="E24" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="E27" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="E28" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="E29" t="s">
         <v>38</v>
       </c>
-      <c r="E29" t="s">
+    </row>
+    <row r="30" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="44" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="45" t="s">
+      <c r="C30" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="D30" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="E30" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="10" t="s">
+    </row>
+    <row r="31" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="45" t="s">
+      <c r="C31" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="D31" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>46</v>
-      </c>
       <c r="E31" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="E33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="E34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="E35" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="E37" t="s">
         <v>62</v>
-      </c>
-      <c r="E37" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="E38" t="s">
         <v>66</v>
-      </c>
-      <c r="E38" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="E39" t="s">
         <v>70</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E40" s="50"/>
+      <c r="E40" s="54"/>
     </row>
     <row r="41" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E41" s="50"/>
+      <c r="E41" s="54"/>
     </row>
     <row r="42" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E42" s="50"/>
+      <c r="E42" s="54"/>
     </row>
     <row r="43" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="E43" t="s">
         <v>109</v>
-      </c>
-      <c r="E43" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="E44" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="E45" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E47" t="s">
         <v>188</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E47" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>123</v>
-      </c>
       <c r="D48" s="9" t="s">
-        <v>124</v>
+        <v>329</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
     </row>
-    <row r="49" spans="1:7" s="23" customFormat="1" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="B49" s="20" t="s">
+    <row r="49" spans="1:7" s="22" customFormat="1" ht="89.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="E49" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="C49" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="E49" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="G49" s="25"/>
+      <c r="G49" s="24"/>
     </row>
     <row r="50" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F51" s="18"/>
+        <v>133</v>
+      </c>
+      <c r="F51" s="17"/>
     </row>
     <row r="52" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>144</v>
-      </c>
       <c r="E53" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E54" s="12" t="s">
         <v>179</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F55" s="18"/>
+        <v>181</v>
+      </c>
+      <c r="F55" s="17"/>
     </row>
     <row r="56" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E57" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E58" t="s">
         <v>150</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E58" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E59" t="s">
         <v>155</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E59" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E60" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>165</v>
-      </c>
       <c r="E61" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E62" t="s">
         <v>166</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E62" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E63" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E64" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="F66" s="18"/>
+        <v>183</v>
+      </c>
+      <c r="F66" s="17"/>
     </row>
     <row r="67" spans="1:7" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="D67" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E67" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="F67" s="17"/>
+    </row>
+    <row r="68" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C68" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="F67" s="18"/>
-    </row>
-    <row r="68" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="C68" s="12" t="s">
+      <c r="D68" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E68" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="F68" s="18"/>
+      <c r="F68" s="17"/>
     </row>
     <row r="69" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C69" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D69" s="4" t="s">
+    </row>
+    <row r="70" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="18" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="19" t="s">
-        <v>206</v>
-      </c>
       <c r="C70" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E70" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B71" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" s="23" customFormat="1" ht="87.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="26" t="s">
+    </row>
+    <row r="72" spans="1:7" s="22" customFormat="1" ht="87.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C72" s="20"/>
+      <c r="D72" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="E72" s="54"/>
+      <c r="F72" s="54"/>
+      <c r="G72" s="24"/>
+    </row>
+    <row r="73" spans="1:7" s="46" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="48"/>
+      <c r="B73" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="C73" s="45"/>
+      <c r="D73" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="E73" s="54"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="49"/>
+    </row>
+    <row r="74" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="B72" s="20" t="s">
+      <c r="C74" s="55" t="s">
         <v>218</v>
       </c>
-      <c r="C72" s="21"/>
-      <c r="D72" s="22" t="s">
+      <c r="D74" s="56"/>
+      <c r="E74" s="54"/>
+      <c r="F74" s="54"/>
+    </row>
+    <row r="75" spans="1:7" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E72" s="50"/>
-      <c r="F72" s="50"/>
-      <c r="G72" s="25"/>
-    </row>
-    <row r="73" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="5" t="s">
+      <c r="C75" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="C73" s="57" t="s">
+      <c r="D75" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="D73" s="58"/>
-      <c r="E73" s="50"/>
-      <c r="F73" s="50"/>
-    </row>
-    <row r="74" spans="1:7" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="5" t="s">
+      <c r="E75" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="F75" s="17"/>
+    </row>
+    <row r="76" spans="1:7" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="C76" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="D76" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="F74" s="18"/>
-    </row>
-    <row r="75" spans="1:7" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="5" t="s">
+      <c r="E76" t="s">
         <v>226</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="F76" s="17"/>
+    </row>
+    <row r="77" spans="1:7" s="22" customFormat="1" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="B77" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="D77" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="E77" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="F77" s="36"/>
+      <c r="G77" s="24"/>
+    </row>
+    <row r="78" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="14"/>
+      <c r="B78" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E75" t="s">
-        <v>229</v>
-      </c>
-      <c r="F75" s="18"/>
-    </row>
-    <row r="76" spans="1:7" s="23" customFormat="1" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="29" t="s">
+      <c r="C78" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E78" s="52"/>
+      <c r="F78" s="27"/>
+    </row>
+    <row r="79" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="14"/>
+      <c r="B79" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E79" s="52"/>
+      <c r="F79" s="27"/>
+    </row>
+    <row r="80" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B76" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="C76" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="D76" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="E76" s="54" t="s">
-        <v>250</v>
-      </c>
-      <c r="F76" s="37"/>
-      <c r="G76" s="25"/>
-    </row>
-    <row r="77" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="15"/>
-      <c r="B77" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E77" s="55"/>
-      <c r="F77" s="28"/>
-    </row>
-    <row r="78" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="15"/>
-      <c r="B78" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="E78" s="55"/>
-      <c r="F78" s="28"/>
-    </row>
-    <row r="79" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="E79" s="55"/>
-      <c r="F79" s="28"/>
-    </row>
-    <row r="80" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="15"/>
-      <c r="B80" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="C80" s="12" t="s">
+      <c r="C80" s="2" t="s">
         <v>242</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="E80" s="55"/>
-      <c r="F80" s="28"/>
-    </row>
-    <row r="81" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C81" s="2" t="s">
+      <c r="E80" s="52"/>
+      <c r="F80" s="27"/>
+    </row>
+    <row r="81" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="14"/>
+      <c r="B81" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E81" s="52"/>
+      <c r="F81" s="27"/>
+    </row>
+    <row r="82" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E82" s="53"/>
+      <c r="F82" s="27"/>
+    </row>
+    <row r="83" spans="1:7" s="22" customFormat="1" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="B83" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="E81" s="56"/>
-      <c r="F81" s="28"/>
-    </row>
-    <row r="82" spans="1:7" s="23" customFormat="1" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="29" t="s">
+      <c r="C83" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="E83" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="F83" s="30"/>
+      <c r="G83" s="24"/>
+    </row>
+    <row r="84" spans="1:7" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B82" s="20" t="s">
+      <c r="C84" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C82" s="30" t="s">
+      <c r="D84" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F84" s="17"/>
+    </row>
+    <row r="85" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D82" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="E82" s="22" t="s">
+      <c r="C85" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="F85" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="F82" s="31"/>
-      <c r="G82" s="25"/>
-    </row>
-    <row r="83" spans="1:7" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="1" t="s">
+    </row>
+    <row r="86" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D83" s="4" t="s">
+      <c r="C86" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E86" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="E83" s="4" t="s">
+    </row>
+    <row r="87" spans="1:7" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D87" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="F83" s="18"/>
-    </row>
-    <row r="84" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="F86" s="18"/>
-    </row>
-    <row r="87" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="1" t="s">
+      <c r="E87" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="F87" s="17"/>
+    </row>
+    <row r="88" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="E88" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D87" s="4" t="s">
+      <c r="G88" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="E87" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="40" t="s">
-        <v>329</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="109" spans="4:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D109"/>
+    </row>
+    <row r="89" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="110" spans="4:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D110"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
     <mergeCell ref="G2:G8"/>
     <mergeCell ref="E2:E6"/>
-    <mergeCell ref="E76:E81"/>
+    <mergeCell ref="E77:E82"/>
     <mergeCell ref="E40:E42"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E72:E74"/>
+    <mergeCell ref="F72:F74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
